--- a/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24198D5E-EB51-4F31-BE70-D99C04815D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED31F7C-9955-4428-950A-9266A3BE236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="233">
   <si>
     <t>##var</t>
   </si>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>选取对象的类型(-1表示不限制;1表示友军;11表示友军player;2表示敌军;21表示敌军player)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>true;true;3;40</t>
   </si>
   <si>
@@ -541,10 +537,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>true;true;8.75;360</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>true;true;10;360</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -782,6 +774,48 @@
   </si>
   <si>
     <t>true;true;8;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取对象的类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hostiles</t>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Friends</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;5;40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;6;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;4;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectConfig_TestChgTarget1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnChkCanHitByBulletCondition;eq;true</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -968,6 +1002,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,9 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1289,31 +1323,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:Z90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O58" sqref="O58"/>
+      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="9" customWidth="1"/>
-    <col min="2" max="3" width="3.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="3.33203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="37" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="9" customWidth="1"/>
-    <col min="7" max="8" width="10.375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="9" customWidth="1"/>
-    <col min="10" max="11" width="10.375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="24.5" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="31.625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="9" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="31.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" style="9" customWidth="1"/>
     <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,30 +1363,30 @@
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>142</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="14"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1365,7 +1399,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1433,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1427,18 +1461,18 @@
         <v>140</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="O3" s="16"/>
+      <c r="N3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="17"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1451,7 +1485,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1517,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>23</v>
@@ -1511,13 +1545,13 @@
         <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>13</v>
@@ -1537,745 +1571,745 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="F8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>3</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
         <v>2</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>2</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D9" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D10" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D11" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D12" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D13" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D14" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>2</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D15" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9">
-        <v>2</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D16" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D17" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>2</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D18" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>2</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D19" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9">
-        <v>2</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D20" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9">
-        <v>2</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D21" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9">
-        <v>2</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D22" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9">
-        <v>2</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D23" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-      <c r="K23" s="9">
-        <v>2</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D24" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="K26" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>1</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D25" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
-        <v>2</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D26" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
-        <v>2</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="N26" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
         <v>75</v>
       </c>
@@ -2294,14 +2328,14 @@
       <c r="J28" s="9">
         <v>-1</v>
       </c>
-      <c r="K28" s="9">
-        <v>-1</v>
+      <c r="K28" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29" s="11" t="s">
         <v>76</v>
       </c>
@@ -2320,14 +2354,14 @@
       <c r="J29" s="9">
         <v>-1</v>
       </c>
-      <c r="K29" s="9">
-        <v>-1</v>
+      <c r="K29" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30" s="11" t="s">
         <v>77</v>
       </c>
@@ -2346,14 +2380,14 @@
       <c r="J30" s="9">
         <v>-1</v>
       </c>
-      <c r="K30" s="9">
-        <v>-1</v>
+      <c r="K30" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31" s="11" t="s">
         <v>70</v>
       </c>
@@ -2372,17 +2406,17 @@
       <c r="J31" s="9">
         <v>-1</v>
       </c>
-      <c r="K31" s="9">
-        <v>2</v>
+      <c r="K31" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32" s="11" t="s">
         <v>78</v>
       </c>
@@ -2401,17 +2435,17 @@
       <c r="J32" s="9">
         <v>-1</v>
       </c>
-      <c r="K32" s="9">
-        <v>2</v>
+      <c r="K32" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D33" s="11" t="s">
         <v>79</v>
       </c>
@@ -2430,17 +2464,17 @@
       <c r="J33" s="9">
         <v>-1</v>
       </c>
-      <c r="K33" s="9">
-        <v>2</v>
+      <c r="K33" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34" s="11" t="s">
         <v>80</v>
       </c>
@@ -2459,17 +2493,17 @@
       <c r="J34" s="9">
         <v>-1</v>
       </c>
-      <c r="K34" s="9">
-        <v>2</v>
+      <c r="K34" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D35" s="11" t="s">
         <v>81</v>
       </c>
@@ -2488,17 +2522,17 @@
       <c r="J35" s="9">
         <v>-1</v>
       </c>
-      <c r="K35" s="9">
-        <v>2</v>
+      <c r="K35" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N35" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D36" s="11" t="s">
         <v>82</v>
       </c>
@@ -2517,17 +2551,17 @@
       <c r="J36" s="9">
         <v>-1</v>
       </c>
-      <c r="K36" s="9">
-        <v>2</v>
+      <c r="K36" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37" s="9" t="s">
         <v>71</v>
       </c>
@@ -2546,17 +2580,17 @@
       <c r="J37" s="9">
         <v>-1</v>
       </c>
-      <c r="K37" s="9">
-        <v>2</v>
+      <c r="K37" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38" s="9" t="s">
         <v>83</v>
       </c>
@@ -2575,17 +2609,17 @@
       <c r="J38" s="9">
         <v>-1</v>
       </c>
-      <c r="K38" s="9">
-        <v>2</v>
+      <c r="K38" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N38" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39" s="9" t="s">
         <v>84</v>
       </c>
@@ -2604,17 +2638,17 @@
       <c r="J39" s="9">
         <v>-1</v>
       </c>
-      <c r="K39" s="9">
-        <v>2</v>
+      <c r="K39" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40" s="9" t="s">
         <v>85</v>
       </c>
@@ -2633,14 +2667,14 @@
       <c r="J40" s="9">
         <v>-1</v>
       </c>
-      <c r="K40" s="9">
-        <v>-1</v>
+      <c r="K40" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D41" s="9" t="s">
         <v>86</v>
       </c>
@@ -2659,14 +2693,14 @@
       <c r="J41" s="9">
         <v>-1</v>
       </c>
-      <c r="K41" s="9">
-        <v>-1</v>
+      <c r="K41" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N41" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="9" t="s">
         <v>87</v>
       </c>
@@ -2685,14 +2719,14 @@
       <c r="J42" s="9">
         <v>-1</v>
       </c>
-      <c r="K42" s="9">
-        <v>-1</v>
+      <c r="K42" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43" s="9" t="s">
         <v>88</v>
       </c>
@@ -2711,14 +2745,14 @@
       <c r="J43" s="9">
         <v>-1</v>
       </c>
-      <c r="K43" s="9">
-        <v>-1</v>
+      <c r="K43" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44" s="9" t="s">
         <v>89</v>
       </c>
@@ -2737,14 +2771,14 @@
       <c r="J44" s="9">
         <v>-1</v>
       </c>
-      <c r="K44" s="9">
-        <v>-1</v>
+      <c r="K44" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45" s="9" t="s">
         <v>90</v>
       </c>
@@ -2763,14 +2797,14 @@
       <c r="J45" s="9">
         <v>-1</v>
       </c>
-      <c r="K45" s="9">
-        <v>-1</v>
+      <c r="K45" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N45" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46" s="9" t="s">
         <v>72</v>
       </c>
@@ -2789,17 +2823,17 @@
       <c r="J46" s="9">
         <v>-1</v>
       </c>
-      <c r="K46" s="9">
-        <v>2</v>
+      <c r="K46" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47" s="9" t="s">
         <v>73</v>
       </c>
@@ -2818,17 +2852,17 @@
       <c r="J47" s="9">
         <v>-1</v>
       </c>
-      <c r="K47" s="9">
-        <v>2</v>
+      <c r="K47" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48" s="9" t="s">
         <v>74</v>
       </c>
@@ -2847,17 +2881,17 @@
       <c r="J48" s="9">
         <v>-1</v>
       </c>
-      <c r="K48" s="9">
-        <v>2</v>
+      <c r="K48" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D49" s="9" t="s">
         <v>134</v>
       </c>
@@ -2876,17 +2910,17 @@
       <c r="J49" s="9">
         <v>-1</v>
       </c>
-      <c r="K49" s="9">
-        <v>1</v>
+      <c r="K49" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="N49" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D50" s="9" t="s">
         <v>136</v>
       </c>
@@ -2905,17 +2939,17 @@
       <c r="J50" s="9">
         <v>-1</v>
       </c>
-      <c r="K50" s="9">
-        <v>1</v>
+      <c r="K50" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="N50" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D51" s="9" t="s">
         <v>138</v>
       </c>
@@ -2934,17 +2968,17 @@
       <c r="J51" s="9">
         <v>-1</v>
       </c>
-      <c r="K51" s="9">
-        <v>1</v>
+      <c r="K51" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="N51" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D53" s="9" t="s">
         <v>133</v>
       </c>
@@ -2963,104 +2997,104 @@
       <c r="J53" s="9">
         <v>-1</v>
       </c>
-      <c r="K53" s="9">
-        <v>2</v>
+      <c r="K53" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N53" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D54" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D54" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D55" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D56" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E56" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G54" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K54" s="9">
-        <v>1</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D55" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G55" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K55" s="9">
-        <v>1</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O55" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D56" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="G56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G56" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K56" s="9">
-        <v>1</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>19</v>
       </c>
@@ -3085,17 +3119,17 @@
       <c r="J59" s="9">
         <v>-1</v>
       </c>
-      <c r="K59" s="9">
-        <v>-1</v>
+      <c r="K59" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N59" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>19</v>
       </c>
@@ -3120,17 +3154,17 @@
       <c r="J61" s="9">
         <v>-1</v>
       </c>
-      <c r="K61" s="9">
-        <v>-1</v>
+      <c r="K61" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N61" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E62" s="10"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>19</v>
       </c>
@@ -3155,20 +3189,20 @@
       <c r="J64" s="9">
         <v>1</v>
       </c>
-      <c r="K64" s="9">
-        <v>2</v>
+      <c r="K64" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N64" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>19</v>
       </c>
@@ -3193,17 +3227,17 @@
       <c r="J65" s="9">
         <v>-1</v>
       </c>
-      <c r="K65" s="9">
-        <v>2</v>
+      <c r="K65" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N65" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>19</v>
       </c>
@@ -3228,17 +3262,17 @@
       <c r="J66" s="9">
         <v>-1</v>
       </c>
-      <c r="K66" s="9">
-        <v>2</v>
+      <c r="K66" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N66" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>19</v>
       </c>
@@ -3263,17 +3297,17 @@
       <c r="J67" s="9">
         <v>-1</v>
       </c>
-      <c r="K67" s="9">
-        <v>2</v>
+      <c r="K67" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N67" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>19</v>
       </c>
@@ -3298,20 +3332,20 @@
       <c r="J68" s="9">
         <v>1</v>
       </c>
-      <c r="K68" s="9">
-        <v>2</v>
+      <c r="K68" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N68" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>19</v>
       </c>
@@ -3336,17 +3370,17 @@
       <c r="J69" s="9">
         <v>-1</v>
       </c>
-      <c r="K69" s="9">
-        <v>2</v>
+      <c r="K69" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N69" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>19</v>
       </c>
@@ -3371,17 +3405,17 @@
       <c r="J70" s="9">
         <v>-1</v>
       </c>
-      <c r="K70" s="9">
-        <v>2</v>
+      <c r="K70" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="N70" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>19</v>
       </c>
@@ -3406,20 +3440,20 @@
       <c r="J72" s="9">
         <v>1</v>
       </c>
-      <c r="K72" s="9">
-        <v>1</v>
+      <c r="K72" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N72" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>19</v>
       </c>
@@ -3444,17 +3478,17 @@
       <c r="J73" s="9">
         <v>-1</v>
       </c>
-      <c r="K73" s="9">
-        <v>1</v>
+      <c r="K73" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="N73" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>19</v>
       </c>
@@ -3479,20 +3513,20 @@
       <c r="J74" s="9">
         <v>1</v>
       </c>
-      <c r="K74" s="9">
-        <v>1</v>
+      <c r="K74" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N74" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>19</v>
       </c>
@@ -3517,17 +3551,17 @@
       <c r="J75" s="9">
         <v>-1</v>
       </c>
-      <c r="K75" s="9">
-        <v>1</v>
+      <c r="K75" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="N75" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>19</v>
       </c>
@@ -3552,14 +3586,14 @@
       <c r="J78" s="9">
         <v>-1</v>
       </c>
-      <c r="K78" s="9">
-        <v>-1</v>
+      <c r="K78" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N78" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>19</v>
       </c>
@@ -3584,14 +3618,14 @@
       <c r="J80" s="9">
         <v>-1</v>
       </c>
-      <c r="K80" s="9">
-        <v>-1</v>
+      <c r="K80" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N80" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>19</v>
       </c>
@@ -3616,14 +3650,14 @@
       <c r="J81" s="9">
         <v>-1</v>
       </c>
-      <c r="K81" s="9">
-        <v>-1</v>
+      <c r="K81" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N81" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>19</v>
       </c>
@@ -3648,14 +3682,14 @@
       <c r="J82" s="9">
         <v>-1</v>
       </c>
-      <c r="K82" s="9">
-        <v>-1</v>
+      <c r="K82" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N82" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>19</v>
       </c>
@@ -3680,14 +3714,14 @@
       <c r="J83" s="9">
         <v>-1</v>
       </c>
-      <c r="K83" s="9">
-        <v>-1</v>
+      <c r="K83" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N83" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>19</v>
       </c>
@@ -3712,14 +3746,14 @@
       <c r="J84" s="9">
         <v>-1</v>
       </c>
-      <c r="K84" s="9">
-        <v>-1</v>
+      <c r="K84" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N84" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>19</v>
       </c>
@@ -3744,49 +3778,82 @@
       <c r="J85" s="9">
         <v>-1</v>
       </c>
-      <c r="K85" s="9">
-        <v>-1</v>
+      <c r="K85" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="N85" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="G88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="9">
+        <v>1</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L88" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G88" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="9">
-        <v>1</v>
-      </c>
-      <c r="K88" s="9">
-        <v>2</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>164</v>
-      </c>
       <c r="N88" s="9" t="s">
         <v>42</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D90" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="G90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="9">
+        <v>1</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
